--- a/src/main/resources/sheets/acompanhamento-leads/Acompanhamento de Leads - Tec Sacadas.xlsx
+++ b/src/main/resources/sheets/acompanhamento-leads/Acompanhamento de Leads - Tec Sacadas.xlsx
@@ -7,18 +7,18 @@
     <sheet state="visible" name="Como preencher" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Leads!$A$1:$I$276</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_202EC582_CD03_4CCC_B9AA_46CCC5517614_.wvu.FilterData">Leads!$A$21:$AC$236</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_E9F9B40F_B781_4611_AD34_58A08A63AD1D_.wvu.FilterData">Leads!$A$1:$I$236</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_6C3CA0EA_301B_4C43_9248_9FE864F212A7_.wvu.FilterData">Leads!$E$1:$E$1000</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_4918637C_71A5_41DB_8574_FD1A80690DB6_.wvu.FilterData">Leads!$H$1:$H$1000</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Leads!$A$1:$I$340</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_16BC10E7_74A7_4E12_BF55_041B62E65BAC_.wvu.FilterData">Leads!$E$1:$E$1000</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_D501E820_4EB2_4806_B770_CA2F818125D6_.wvu.FilterData">Leads!$A$1:$I$236</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_1C3AE3CE_0070_40F2_B438_8DFD319C2EEA_.wvu.FilterData">Leads!$A$21:$AC$236</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_DF73B051_FB33_4E7D_BDE7_B4F417C6A432_.wvu.FilterData">Leads!$H$1:$H$1000</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{6C3CA0EA-301B-4C43-9248-9FE864F212A7}" name="Filtro 4"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{202EC582-CD03-4CCC-B9AA-46CCC5517614}" name="Filtro 1"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E9F9B40F-B781-4611-AD34-58A08A63AD1D}" name="Filtro 2"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4918637C-71A5-41DB-8574-FD1A80690DB6}" name="Filtro 3"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{16BC10E7-74A7-4E12-BF55-041B62E65BAC}" name="Filtro 4"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{1C3AE3CE-0070-40F2-B438-8DFD319C2EEA}" name="Filtro 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D501E820-4EB2-4806-B770-CA2F818125D6}" name="Filtro 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DF73B051-FB33-4E7D-BDE7-B4F417C6A432}" name="Filtro 3"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="82">
   <si>
     <t>Data</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Trote</t>
+  </si>
+  <si>
+    <t>Não aceitou aguardar a data mais próxima disponível</t>
   </si>
   <si>
     <t>Data do Lead</t>
@@ -13157,517 +13160,2905 @@
       <c r="AB276" s="3"/>
       <c r="AC276" s="3"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
-      <c r="B277" s="7"/>
-      <c r="C277" s="7"/>
-      <c r="D277" s="7"/>
-      <c r="E277" s="7"/>
-      <c r="G277" s="7"/>
-      <c r="H277" s="7"/>
+    <row r="277">
+      <c r="A277" s="4">
+        <v>45254.0</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E277" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F277" s="3"/>
+      <c r="G277" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H277" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I277" s="3"/>
+      <c r="J277" s="3"/>
+      <c r="K277" s="3"/>
+      <c r="L277" s="3"/>
+      <c r="M277" s="3"/>
+      <c r="N277" s="3"/>
+      <c r="O277" s="3"/>
+      <c r="P277" s="3"/>
+      <c r="Q277" s="3"/>
+      <c r="R277" s="3"/>
+      <c r="S277" s="3"/>
+      <c r="T277" s="3"/>
+      <c r="U277" s="3"/>
+      <c r="V277" s="3"/>
+      <c r="W277" s="3"/>
+      <c r="X277" s="3"/>
+      <c r="Y277" s="3"/>
+      <c r="Z277" s="3"/>
+      <c r="AA277" s="3"/>
+      <c r="AB277" s="3"/>
+      <c r="AC277" s="3"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="B278" s="7"/>
-      <c r="C278" s="7"/>
-      <c r="D278" s="7"/>
-      <c r="E278" s="7"/>
-      <c r="G278" s="7"/>
-      <c r="H278" s="7"/>
-    </row>
-    <row r="279" ht="15.75" customHeight="1">
-      <c r="B279" s="7"/>
-      <c r="C279" s="7"/>
-      <c r="D279" s="7"/>
-      <c r="E279" s="7"/>
-      <c r="G279" s="7"/>
-      <c r="H279" s="7"/>
-    </row>
-    <row r="280" ht="15.75" customHeight="1">
-      <c r="B280" s="7"/>
-      <c r="C280" s="7"/>
-      <c r="D280" s="7"/>
-      <c r="E280" s="7"/>
-      <c r="G280" s="7"/>
-      <c r="H280" s="7"/>
-    </row>
-    <row r="281" ht="15.75" customHeight="1">
-      <c r="B281" s="7"/>
-      <c r="C281" s="7"/>
-      <c r="D281" s="7"/>
-      <c r="E281" s="7"/>
-      <c r="G281" s="7"/>
-      <c r="H281" s="7"/>
-    </row>
-    <row r="282" ht="15.75" customHeight="1">
-      <c r="B282" s="7"/>
-      <c r="C282" s="7"/>
-      <c r="D282" s="7"/>
-      <c r="E282" s="7"/>
-      <c r="G282" s="7"/>
-      <c r="H282" s="7"/>
-    </row>
-    <row r="283" ht="15.75" customHeight="1">
-      <c r="B283" s="7"/>
-      <c r="C283" s="7"/>
-      <c r="D283" s="7"/>
-      <c r="E283" s="7"/>
-      <c r="G283" s="7"/>
-      <c r="H283" s="7"/>
-    </row>
-    <row r="284" ht="15.75" customHeight="1">
-      <c r="B284" s="7"/>
-      <c r="C284" s="7"/>
-      <c r="D284" s="7"/>
-      <c r="E284" s="7"/>
-      <c r="G284" s="7"/>
-      <c r="H284" s="7"/>
-    </row>
-    <row r="285" ht="15.75" customHeight="1">
-      <c r="B285" s="7"/>
-      <c r="C285" s="7"/>
-      <c r="D285" s="7"/>
-      <c r="E285" s="7"/>
-      <c r="G285" s="7"/>
-      <c r="H285" s="7"/>
-    </row>
-    <row r="286" ht="15.75" customHeight="1">
-      <c r="B286" s="7"/>
-      <c r="C286" s="7"/>
-      <c r="D286" s="7"/>
-      <c r="E286" s="7"/>
-      <c r="G286" s="7"/>
-      <c r="H286" s="7"/>
-    </row>
-    <row r="287" ht="15.75" customHeight="1">
-      <c r="B287" s="7"/>
-      <c r="C287" s="7"/>
-      <c r="D287" s="7"/>
-      <c r="E287" s="7"/>
-      <c r="G287" s="7"/>
-      <c r="H287" s="7"/>
-    </row>
-    <row r="288" ht="15.75" customHeight="1">
-      <c r="B288" s="7"/>
-      <c r="C288" s="7"/>
-      <c r="D288" s="7"/>
-      <c r="E288" s="7"/>
-      <c r="G288" s="7"/>
-      <c r="H288" s="7"/>
+      <c r="A278" s="4">
+        <v>45254.0</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D278" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E278" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F278" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G278" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H278" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I278" s="3"/>
+      <c r="J278" s="3"/>
+      <c r="K278" s="3"/>
+      <c r="L278" s="3"/>
+      <c r="M278" s="3"/>
+      <c r="N278" s="3"/>
+      <c r="O278" s="3"/>
+      <c r="P278" s="3"/>
+      <c r="Q278" s="3"/>
+      <c r="R278" s="3"/>
+      <c r="S278" s="3"/>
+      <c r="T278" s="3"/>
+      <c r="U278" s="3"/>
+      <c r="V278" s="3"/>
+      <c r="W278" s="3"/>
+      <c r="X278" s="3"/>
+      <c r="Y278" s="3"/>
+      <c r="Z278" s="3"/>
+      <c r="AA278" s="3"/>
+      <c r="AB278" s="3"/>
+      <c r="AC278" s="3"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="4">
+        <v>45254.0</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E279" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F279" s="3"/>
+      <c r="G279" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H279" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I279" s="3"/>
+      <c r="J279" s="3"/>
+      <c r="K279" s="3"/>
+      <c r="L279" s="3"/>
+      <c r="M279" s="3"/>
+      <c r="N279" s="3"/>
+      <c r="O279" s="3"/>
+      <c r="P279" s="3"/>
+      <c r="Q279" s="3"/>
+      <c r="R279" s="3"/>
+      <c r="S279" s="3"/>
+      <c r="T279" s="3"/>
+      <c r="U279" s="3"/>
+      <c r="V279" s="3"/>
+      <c r="W279" s="3"/>
+      <c r="X279" s="3"/>
+      <c r="Y279" s="3"/>
+      <c r="Z279" s="3"/>
+      <c r="AA279" s="3"/>
+      <c r="AB279" s="3"/>
+      <c r="AC279" s="3"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="4">
+        <v>45254.0</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D280" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E280" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F280" s="3"/>
+      <c r="G280" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H280" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I280" s="3"/>
+      <c r="J280" s="3"/>
+      <c r="K280" s="3"/>
+      <c r="L280" s="3"/>
+      <c r="M280" s="3"/>
+      <c r="N280" s="3"/>
+      <c r="O280" s="3"/>
+      <c r="P280" s="3"/>
+      <c r="Q280" s="3"/>
+      <c r="R280" s="3"/>
+      <c r="S280" s="3"/>
+      <c r="T280" s="3"/>
+      <c r="U280" s="3"/>
+      <c r="V280" s="3"/>
+      <c r="W280" s="3"/>
+      <c r="X280" s="3"/>
+      <c r="Y280" s="3"/>
+      <c r="Z280" s="3"/>
+      <c r="AA280" s="3"/>
+      <c r="AB280" s="3"/>
+      <c r="AC280" s="3"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="4">
+        <v>45254.0</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E281" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F281" s="3"/>
+      <c r="G281" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H281" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I281" s="3"/>
+      <c r="J281" s="3"/>
+      <c r="K281" s="3"/>
+      <c r="L281" s="3"/>
+      <c r="M281" s="3"/>
+      <c r="N281" s="3"/>
+      <c r="O281" s="3"/>
+      <c r="P281" s="3"/>
+      <c r="Q281" s="3"/>
+      <c r="R281" s="3"/>
+      <c r="S281" s="3"/>
+      <c r="T281" s="3"/>
+      <c r="U281" s="3"/>
+      <c r="V281" s="3"/>
+      <c r="W281" s="3"/>
+      <c r="X281" s="3"/>
+      <c r="Y281" s="3"/>
+      <c r="Z281" s="3"/>
+      <c r="AA281" s="3"/>
+      <c r="AB281" s="3"/>
+      <c r="AC281" s="3"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="4">
+        <v>45254.0</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E282" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F282" s="3"/>
+      <c r="G282" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H282" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I282" s="3"/>
+      <c r="J282" s="3"/>
+      <c r="K282" s="3"/>
+      <c r="L282" s="3"/>
+      <c r="M282" s="3"/>
+      <c r="N282" s="3"/>
+      <c r="O282" s="3"/>
+      <c r="P282" s="3"/>
+      <c r="Q282" s="3"/>
+      <c r="R282" s="3"/>
+      <c r="S282" s="3"/>
+      <c r="T282" s="3"/>
+      <c r="U282" s="3"/>
+      <c r="V282" s="3"/>
+      <c r="W282" s="3"/>
+      <c r="X282" s="3"/>
+      <c r="Y282" s="3"/>
+      <c r="Z282" s="3"/>
+      <c r="AA282" s="3"/>
+      <c r="AB282" s="3"/>
+      <c r="AC282" s="3"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="4">
+        <v>45255.0</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E283" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F283" s="3"/>
+      <c r="G283" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H283" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I283" s="3"/>
+      <c r="J283" s="3"/>
+      <c r="K283" s="3"/>
+      <c r="L283" s="3"/>
+      <c r="M283" s="3"/>
+      <c r="N283" s="3"/>
+      <c r="O283" s="3"/>
+      <c r="P283" s="3"/>
+      <c r="Q283" s="3"/>
+      <c r="R283" s="3"/>
+      <c r="S283" s="3"/>
+      <c r="T283" s="3"/>
+      <c r="U283" s="3"/>
+      <c r="V283" s="3"/>
+      <c r="W283" s="3"/>
+      <c r="X283" s="3"/>
+      <c r="Y283" s="3"/>
+      <c r="Z283" s="3"/>
+      <c r="AA283" s="3"/>
+      <c r="AB283" s="3"/>
+      <c r="AC283" s="3"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="4">
+        <v>45255.0</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D284" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E284" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F284" s="3"/>
+      <c r="G284" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H284" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I284" s="3"/>
+      <c r="J284" s="3"/>
+      <c r="K284" s="3"/>
+      <c r="L284" s="3"/>
+      <c r="M284" s="3"/>
+      <c r="N284" s="3"/>
+      <c r="O284" s="3"/>
+      <c r="P284" s="3"/>
+      <c r="Q284" s="3"/>
+      <c r="R284" s="3"/>
+      <c r="S284" s="3"/>
+      <c r="T284" s="3"/>
+      <c r="U284" s="3"/>
+      <c r="V284" s="3"/>
+      <c r="W284" s="3"/>
+      <c r="X284" s="3"/>
+      <c r="Y284" s="3"/>
+      <c r="Z284" s="3"/>
+      <c r="AA284" s="3"/>
+      <c r="AB284" s="3"/>
+      <c r="AC284" s="3"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="4">
+        <v>45255.0</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D285" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E285" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F285" s="3"/>
+      <c r="G285" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H285" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I285" s="3"/>
+      <c r="J285" s="3"/>
+      <c r="K285" s="3"/>
+      <c r="L285" s="3"/>
+      <c r="M285" s="3"/>
+      <c r="N285" s="3"/>
+      <c r="O285" s="3"/>
+      <c r="P285" s="3"/>
+      <c r="Q285" s="3"/>
+      <c r="R285" s="3"/>
+      <c r="S285" s="3"/>
+      <c r="T285" s="3"/>
+      <c r="U285" s="3"/>
+      <c r="V285" s="3"/>
+      <c r="W285" s="3"/>
+      <c r="X285" s="3"/>
+      <c r="Y285" s="3"/>
+      <c r="Z285" s="3"/>
+      <c r="AA285" s="3"/>
+      <c r="AB285" s="3"/>
+      <c r="AC285" s="3"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="4">
+        <v>45257.0</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E286" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F286" s="3"/>
+      <c r="G286" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H286" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I286" s="3"/>
+      <c r="J286" s="3"/>
+      <c r="K286" s="3"/>
+      <c r="L286" s="3"/>
+      <c r="M286" s="3"/>
+      <c r="N286" s="3"/>
+      <c r="O286" s="3"/>
+      <c r="P286" s="3"/>
+      <c r="Q286" s="3"/>
+      <c r="R286" s="3"/>
+      <c r="S286" s="3"/>
+      <c r="T286" s="3"/>
+      <c r="U286" s="3"/>
+      <c r="V286" s="3"/>
+      <c r="W286" s="3"/>
+      <c r="X286" s="3"/>
+      <c r="Y286" s="3"/>
+      <c r="Z286" s="3"/>
+      <c r="AA286" s="3"/>
+      <c r="AB286" s="3"/>
+      <c r="AC286" s="3"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="4">
+        <v>45257.0</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D287" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E287" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F287" s="3"/>
+      <c r="G287" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H287" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I287" s="3"/>
+      <c r="J287" s="3"/>
+      <c r="K287" s="3"/>
+      <c r="L287" s="3"/>
+      <c r="M287" s="3"/>
+      <c r="N287" s="3"/>
+      <c r="O287" s="3"/>
+      <c r="P287" s="3"/>
+      <c r="Q287" s="3"/>
+      <c r="R287" s="3"/>
+      <c r="S287" s="3"/>
+      <c r="T287" s="3"/>
+      <c r="U287" s="3"/>
+      <c r="V287" s="3"/>
+      <c r="W287" s="3"/>
+      <c r="X287" s="3"/>
+      <c r="Y287" s="3"/>
+      <c r="Z287" s="3"/>
+      <c r="AA287" s="3"/>
+      <c r="AB287" s="3"/>
+      <c r="AC287" s="3"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="4">
+        <v>45257.0</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D288" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E288" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F288" s="3"/>
+      <c r="G288" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H288" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I288" s="3"/>
+      <c r="J288" s="3"/>
+      <c r="K288" s="3"/>
+      <c r="L288" s="3"/>
+      <c r="M288" s="3"/>
+      <c r="N288" s="3"/>
+      <c r="O288" s="3"/>
+      <c r="P288" s="3"/>
+      <c r="Q288" s="3"/>
+      <c r="R288" s="3"/>
+      <c r="S288" s="3"/>
+      <c r="T288" s="3"/>
+      <c r="U288" s="3"/>
+      <c r="V288" s="3"/>
+      <c r="W288" s="3"/>
+      <c r="X288" s="3"/>
+      <c r="Y288" s="3"/>
+      <c r="Z288" s="3"/>
+      <c r="AA288" s="3"/>
+      <c r="AB288" s="3"/>
+      <c r="AC288" s="3"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="B289" s="7"/>
-      <c r="C289" s="7"/>
-      <c r="D289" s="7"/>
-      <c r="E289" s="7"/>
-      <c r="G289" s="7"/>
-      <c r="H289" s="7"/>
+      <c r="A289" s="4">
+        <v>45257.0</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D289" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E289" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F289" s="3"/>
+      <c r="G289" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H289" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I289" s="3"/>
+      <c r="J289" s="3"/>
+      <c r="K289" s="3"/>
+      <c r="L289" s="3"/>
+      <c r="M289" s="3"/>
+      <c r="N289" s="3"/>
+      <c r="O289" s="3"/>
+      <c r="P289" s="3"/>
+      <c r="Q289" s="3"/>
+      <c r="R289" s="3"/>
+      <c r="S289" s="3"/>
+      <c r="T289" s="3"/>
+      <c r="U289" s="3"/>
+      <c r="V289" s="3"/>
+      <c r="W289" s="3"/>
+      <c r="X289" s="3"/>
+      <c r="Y289" s="3"/>
+      <c r="Z289" s="3"/>
+      <c r="AA289" s="3"/>
+      <c r="AB289" s="3"/>
+      <c r="AC289" s="3"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="B290" s="7"/>
-      <c r="C290" s="7"/>
-      <c r="D290" s="7"/>
-      <c r="E290" s="7"/>
-      <c r="G290" s="7"/>
-      <c r="H290" s="7"/>
-    </row>
-    <row r="291" ht="15.75" customHeight="1">
-      <c r="B291" s="7"/>
-      <c r="C291" s="7"/>
-      <c r="D291" s="7"/>
-      <c r="E291" s="7"/>
-      <c r="G291" s="7"/>
-      <c r="H291" s="7"/>
-    </row>
-    <row r="292" ht="15.75" customHeight="1">
-      <c r="B292" s="7"/>
-      <c r="C292" s="7"/>
-      <c r="D292" s="7"/>
-      <c r="E292" s="7"/>
-      <c r="G292" s="7"/>
-      <c r="H292" s="7"/>
-    </row>
-    <row r="293" ht="15.75" customHeight="1">
-      <c r="B293" s="7"/>
-      <c r="C293" s="7"/>
-      <c r="D293" s="7"/>
-      <c r="E293" s="7"/>
-      <c r="G293" s="7"/>
-      <c r="H293" s="7"/>
-    </row>
-    <row r="294" ht="15.75" customHeight="1">
-      <c r="B294" s="7"/>
-      <c r="C294" s="7"/>
-      <c r="D294" s="7"/>
-      <c r="E294" s="7"/>
-      <c r="G294" s="7"/>
-      <c r="H294" s="7"/>
-    </row>
-    <row r="295" ht="15.75" customHeight="1">
-      <c r="B295" s="7"/>
-      <c r="C295" s="7"/>
-      <c r="D295" s="7"/>
-      <c r="E295" s="7"/>
-      <c r="G295" s="7"/>
-      <c r="H295" s="7"/>
-    </row>
-    <row r="296" ht="15.75" customHeight="1">
-      <c r="B296" s="7"/>
-      <c r="C296" s="7"/>
-      <c r="D296" s="7"/>
-      <c r="E296" s="7"/>
-      <c r="G296" s="7"/>
-      <c r="H296" s="7"/>
-    </row>
-    <row r="297" ht="15.75" customHeight="1">
-      <c r="B297" s="7"/>
-      <c r="C297" s="7"/>
-      <c r="D297" s="7"/>
-      <c r="E297" s="7"/>
-      <c r="G297" s="7"/>
-      <c r="H297" s="7"/>
-    </row>
-    <row r="298" ht="15.75" customHeight="1">
-      <c r="B298" s="7"/>
-      <c r="C298" s="7"/>
-      <c r="D298" s="7"/>
-      <c r="E298" s="7"/>
-      <c r="G298" s="7"/>
-      <c r="H298" s="7"/>
-    </row>
-    <row r="299" ht="15.75" customHeight="1">
-      <c r="B299" s="7"/>
-      <c r="C299" s="7"/>
-      <c r="D299" s="7"/>
-      <c r="E299" s="7"/>
-      <c r="G299" s="7"/>
-      <c r="H299" s="7"/>
-    </row>
-    <row r="300" ht="15.75" customHeight="1">
-      <c r="B300" s="7"/>
-      <c r="C300" s="7"/>
-      <c r="D300" s="7"/>
-      <c r="E300" s="7"/>
-      <c r="G300" s="7"/>
-      <c r="H300" s="7"/>
-    </row>
-    <row r="301" ht="15.75" customHeight="1">
-      <c r="B301" s="7"/>
-      <c r="C301" s="7"/>
-      <c r="D301" s="7"/>
-      <c r="E301" s="7"/>
-      <c r="G301" s="7"/>
-      <c r="H301" s="7"/>
-    </row>
-    <row r="302" ht="15.75" customHeight="1">
-      <c r="B302" s="7"/>
-      <c r="C302" s="7"/>
-      <c r="D302" s="7"/>
-      <c r="E302" s="7"/>
-      <c r="G302" s="7"/>
-      <c r="H302" s="7"/>
-    </row>
-    <row r="303" ht="15.75" customHeight="1">
-      <c r="B303" s="7"/>
-      <c r="C303" s="7"/>
-      <c r="D303" s="7"/>
-      <c r="E303" s="7"/>
-      <c r="G303" s="7"/>
-      <c r="H303" s="7"/>
-    </row>
-    <row r="304" ht="15.75" customHeight="1">
-      <c r="B304" s="7"/>
-      <c r="C304" s="7"/>
-      <c r="D304" s="7"/>
-      <c r="E304" s="7"/>
-      <c r="G304" s="7"/>
-      <c r="H304" s="7"/>
-    </row>
-    <row r="305" ht="15.75" customHeight="1">
-      <c r="B305" s="7"/>
-      <c r="C305" s="7"/>
-      <c r="D305" s="7"/>
-      <c r="E305" s="7"/>
-      <c r="G305" s="7"/>
-      <c r="H305" s="7"/>
-    </row>
-    <row r="306" ht="15.75" customHeight="1">
-      <c r="B306" s="7"/>
-      <c r="C306" s="7"/>
-      <c r="D306" s="7"/>
-      <c r="E306" s="7"/>
-      <c r="G306" s="7"/>
-      <c r="H306" s="7"/>
-    </row>
-    <row r="307" ht="15.75" customHeight="1">
-      <c r="B307" s="7"/>
-      <c r="C307" s="7"/>
-      <c r="D307" s="7"/>
-      <c r="E307" s="7"/>
-      <c r="G307" s="7"/>
-      <c r="H307" s="7"/>
-    </row>
-    <row r="308" ht="15.75" customHeight="1">
-      <c r="B308" s="7"/>
-      <c r="C308" s="7"/>
-      <c r="D308" s="7"/>
-      <c r="E308" s="7"/>
-      <c r="G308" s="7"/>
-      <c r="H308" s="7"/>
-    </row>
-    <row r="309" ht="15.75" customHeight="1">
-      <c r="B309" s="7"/>
-      <c r="C309" s="7"/>
-      <c r="D309" s="7"/>
-      <c r="E309" s="7"/>
-      <c r="G309" s="7"/>
-      <c r="H309" s="7"/>
-    </row>
-    <row r="310" ht="15.75" customHeight="1">
-      <c r="B310" s="7"/>
-      <c r="C310" s="7"/>
-      <c r="D310" s="7"/>
-      <c r="E310" s="7"/>
-      <c r="G310" s="7"/>
-      <c r="H310" s="7"/>
-    </row>
-    <row r="311" ht="15.75" customHeight="1">
-      <c r="B311" s="7"/>
-      <c r="C311" s="7"/>
-      <c r="D311" s="7"/>
-      <c r="E311" s="7"/>
-      <c r="G311" s="7"/>
-      <c r="H311" s="7"/>
-    </row>
-    <row r="312" ht="15.75" customHeight="1">
-      <c r="B312" s="7"/>
-      <c r="C312" s="7"/>
-      <c r="D312" s="7"/>
-      <c r="E312" s="7"/>
-      <c r="G312" s="7"/>
-      <c r="H312" s="7"/>
-    </row>
-    <row r="313" ht="15.75" customHeight="1">
-      <c r="B313" s="7"/>
-      <c r="C313" s="7"/>
-      <c r="D313" s="7"/>
-      <c r="E313" s="7"/>
-      <c r="G313" s="7"/>
-      <c r="H313" s="7"/>
-    </row>
-    <row r="314" ht="15.75" customHeight="1">
-      <c r="B314" s="7"/>
-      <c r="C314" s="7"/>
-      <c r="D314" s="7"/>
-      <c r="E314" s="7"/>
-      <c r="G314" s="7"/>
-      <c r="H314" s="7"/>
-    </row>
-    <row r="315" ht="15.75" customHeight="1">
-      <c r="B315" s="7"/>
-      <c r="C315" s="7"/>
-      <c r="D315" s="7"/>
-      <c r="E315" s="7"/>
-      <c r="G315" s="7"/>
-      <c r="H315" s="7"/>
-    </row>
-    <row r="316" ht="15.75" customHeight="1">
-      <c r="B316" s="7"/>
-      <c r="C316" s="7"/>
-      <c r="D316" s="7"/>
-      <c r="E316" s="7"/>
-      <c r="G316" s="7"/>
-      <c r="H316" s="7"/>
-    </row>
-    <row r="317" ht="15.75" customHeight="1">
-      <c r="B317" s="7"/>
-      <c r="C317" s="7"/>
-      <c r="D317" s="7"/>
-      <c r="E317" s="7"/>
-      <c r="G317" s="7"/>
-      <c r="H317" s="7"/>
-    </row>
-    <row r="318" ht="15.75" customHeight="1">
-      <c r="B318" s="7"/>
-      <c r="C318" s="7"/>
-      <c r="D318" s="7"/>
-      <c r="E318" s="7"/>
-      <c r="G318" s="7"/>
-      <c r="H318" s="7"/>
-    </row>
-    <row r="319" ht="15.75" customHeight="1">
-      <c r="B319" s="7"/>
-      <c r="C319" s="7"/>
-      <c r="D319" s="7"/>
-      <c r="E319" s="7"/>
-      <c r="G319" s="7"/>
-      <c r="H319" s="7"/>
-    </row>
-    <row r="320" ht="15.75" customHeight="1">
-      <c r="B320" s="7"/>
-      <c r="C320" s="7"/>
-      <c r="D320" s="7"/>
-      <c r="E320" s="7"/>
-      <c r="G320" s="7"/>
-      <c r="H320" s="7"/>
-    </row>
-    <row r="321" ht="15.75" customHeight="1">
-      <c r="B321" s="7"/>
-      <c r="C321" s="7"/>
-      <c r="D321" s="7"/>
-      <c r="E321" s="7"/>
-      <c r="G321" s="7"/>
-      <c r="H321" s="7"/>
-    </row>
-    <row r="322" ht="15.75" customHeight="1">
-      <c r="B322" s="7"/>
-      <c r="C322" s="7"/>
-      <c r="D322" s="7"/>
-      <c r="E322" s="7"/>
-      <c r="G322" s="7"/>
-      <c r="H322" s="7"/>
-    </row>
-    <row r="323" ht="15.75" customHeight="1">
-      <c r="B323" s="7"/>
-      <c r="C323" s="7"/>
-      <c r="D323" s="7"/>
-      <c r="E323" s="7"/>
-      <c r="G323" s="7"/>
-      <c r="H323" s="7"/>
-    </row>
-    <row r="324" ht="15.75" customHeight="1">
-      <c r="B324" s="7"/>
-      <c r="C324" s="7"/>
-      <c r="D324" s="7"/>
-      <c r="E324" s="7"/>
-      <c r="G324" s="7"/>
-      <c r="H324" s="7"/>
-    </row>
-    <row r="325" ht="15.75" customHeight="1">
-      <c r="B325" s="7"/>
-      <c r="C325" s="7"/>
-      <c r="D325" s="7"/>
-      <c r="E325" s="7"/>
-      <c r="G325" s="7"/>
-      <c r="H325" s="7"/>
-    </row>
-    <row r="326" ht="15.75" customHeight="1">
-      <c r="B326" s="7"/>
-      <c r="C326" s="7"/>
-      <c r="D326" s="7"/>
-      <c r="E326" s="7"/>
-      <c r="G326" s="7"/>
-      <c r="H326" s="7"/>
-    </row>
-    <row r="327" ht="15.75" customHeight="1">
-      <c r="B327" s="7"/>
-      <c r="C327" s="7"/>
-      <c r="D327" s="7"/>
-      <c r="E327" s="7"/>
-      <c r="G327" s="7"/>
-      <c r="H327" s="7"/>
-    </row>
-    <row r="328" ht="15.75" customHeight="1">
-      <c r="B328" s="7"/>
-      <c r="C328" s="7"/>
-      <c r="D328" s="7"/>
-      <c r="E328" s="7"/>
-      <c r="G328" s="7"/>
-      <c r="H328" s="7"/>
-    </row>
-    <row r="329" ht="15.75" customHeight="1">
-      <c r="B329" s="7"/>
-      <c r="C329" s="7"/>
-      <c r="D329" s="7"/>
-      <c r="E329" s="7"/>
-      <c r="G329" s="7"/>
-      <c r="H329" s="7"/>
-    </row>
-    <row r="330" ht="15.75" customHeight="1">
-      <c r="B330" s="7"/>
-      <c r="C330" s="7"/>
-      <c r="D330" s="7"/>
-      <c r="E330" s="7"/>
-      <c r="G330" s="7"/>
-      <c r="H330" s="7"/>
-    </row>
-    <row r="331" ht="15.75" customHeight="1">
-      <c r="B331" s="7"/>
-      <c r="C331" s="7"/>
-      <c r="D331" s="7"/>
-      <c r="E331" s="7"/>
-      <c r="G331" s="7"/>
-      <c r="H331" s="7"/>
-    </row>
-    <row r="332" ht="15.75" customHeight="1">
-      <c r="B332" s="7"/>
-      <c r="C332" s="7"/>
-      <c r="D332" s="7"/>
-      <c r="E332" s="7"/>
-      <c r="G332" s="7"/>
-      <c r="H332" s="7"/>
-    </row>
-    <row r="333" ht="15.75" customHeight="1">
-      <c r="B333" s="7"/>
-      <c r="C333" s="7"/>
-      <c r="D333" s="7"/>
-      <c r="E333" s="7"/>
-      <c r="G333" s="7"/>
-      <c r="H333" s="7"/>
-    </row>
-    <row r="334" ht="15.75" customHeight="1">
-      <c r="B334" s="7"/>
-      <c r="C334" s="7"/>
-      <c r="D334" s="7"/>
-      <c r="E334" s="7"/>
-      <c r="G334" s="7"/>
-      <c r="H334" s="7"/>
-    </row>
-    <row r="335" ht="15.75" customHeight="1">
-      <c r="B335" s="7"/>
-      <c r="C335" s="7"/>
-      <c r="D335" s="7"/>
-      <c r="E335" s="7"/>
-      <c r="G335" s="7"/>
-      <c r="H335" s="7"/>
-    </row>
-    <row r="336" ht="15.75" customHeight="1">
-      <c r="B336" s="7"/>
-      <c r="C336" s="7"/>
-      <c r="D336" s="7"/>
-      <c r="E336" s="7"/>
-      <c r="G336" s="7"/>
-      <c r="H336" s="7"/>
-    </row>
-    <row r="337" ht="15.75" customHeight="1">
-      <c r="B337" s="7"/>
-      <c r="C337" s="7"/>
-      <c r="D337" s="7"/>
-      <c r="E337" s="7"/>
-      <c r="G337" s="7"/>
-      <c r="H337" s="7"/>
-    </row>
-    <row r="338" ht="15.75" customHeight="1">
-      <c r="B338" s="7"/>
-      <c r="C338" s="7"/>
-      <c r="D338" s="7"/>
-      <c r="E338" s="7"/>
-      <c r="G338" s="7"/>
-      <c r="H338" s="7"/>
-    </row>
-    <row r="339" ht="15.75" customHeight="1">
-      <c r="B339" s="7"/>
-      <c r="C339" s="7"/>
-      <c r="D339" s="7"/>
-      <c r="E339" s="7"/>
-      <c r="G339" s="7"/>
-      <c r="H339" s="7"/>
-    </row>
-    <row r="340" ht="15.75" customHeight="1">
-      <c r="B340" s="7"/>
-      <c r="C340" s="7"/>
-      <c r="D340" s="7"/>
-      <c r="E340" s="7"/>
-      <c r="G340" s="7"/>
-      <c r="H340" s="7"/>
+      <c r="A290" s="4">
+        <v>45257.0</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D290" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E290" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F290" s="3"/>
+      <c r="G290" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H290" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I290" s="3"/>
+      <c r="J290" s="3"/>
+      <c r="K290" s="3"/>
+      <c r="L290" s="3"/>
+      <c r="M290" s="3"/>
+      <c r="N290" s="3"/>
+      <c r="O290" s="3"/>
+      <c r="P290" s="3"/>
+      <c r="Q290" s="3"/>
+      <c r="R290" s="3"/>
+      <c r="S290" s="3"/>
+      <c r="T290" s="3"/>
+      <c r="U290" s="3"/>
+      <c r="V290" s="3"/>
+      <c r="W290" s="3"/>
+      <c r="X290" s="3"/>
+      <c r="Y290" s="3"/>
+      <c r="Z290" s="3"/>
+      <c r="AA290" s="3"/>
+      <c r="AB290" s="3"/>
+      <c r="AC290" s="3"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="4">
+        <v>45258.0</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E291" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F291" s="3"/>
+      <c r="G291" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H291" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I291" s="3"/>
+      <c r="J291" s="3"/>
+      <c r="K291" s="3"/>
+      <c r="L291" s="3"/>
+      <c r="M291" s="3"/>
+      <c r="N291" s="3"/>
+      <c r="O291" s="3"/>
+      <c r="P291" s="3"/>
+      <c r="Q291" s="3"/>
+      <c r="R291" s="3"/>
+      <c r="S291" s="3"/>
+      <c r="T291" s="3"/>
+      <c r="U291" s="3"/>
+      <c r="V291" s="3"/>
+      <c r="W291" s="3"/>
+      <c r="X291" s="3"/>
+      <c r="Y291" s="3"/>
+      <c r="Z291" s="3"/>
+      <c r="AA291" s="3"/>
+      <c r="AB291" s="3"/>
+      <c r="AC291" s="3"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="4">
+        <v>45258.0</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D292" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E292" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F292" s="3"/>
+      <c r="G292" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H292" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I292" s="3"/>
+      <c r="J292" s="3"/>
+      <c r="K292" s="3"/>
+      <c r="L292" s="3"/>
+      <c r="M292" s="3"/>
+      <c r="N292" s="3"/>
+      <c r="O292" s="3"/>
+      <c r="P292" s="3"/>
+      <c r="Q292" s="3"/>
+      <c r="R292" s="3"/>
+      <c r="S292" s="3"/>
+      <c r="T292" s="3"/>
+      <c r="U292" s="3"/>
+      <c r="V292" s="3"/>
+      <c r="W292" s="3"/>
+      <c r="X292" s="3"/>
+      <c r="Y292" s="3"/>
+      <c r="Z292" s="3"/>
+      <c r="AA292" s="3"/>
+      <c r="AB292" s="3"/>
+      <c r="AC292" s="3"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="4">
+        <v>45258.0</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E293" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F293" s="3"/>
+      <c r="G293" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H293" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I293" s="3"/>
+      <c r="J293" s="3"/>
+      <c r="K293" s="3"/>
+      <c r="L293" s="3"/>
+      <c r="M293" s="3"/>
+      <c r="N293" s="3"/>
+      <c r="O293" s="3"/>
+      <c r="P293" s="3"/>
+      <c r="Q293" s="3"/>
+      <c r="R293" s="3"/>
+      <c r="S293" s="3"/>
+      <c r="T293" s="3"/>
+      <c r="U293" s="3"/>
+      <c r="V293" s="3"/>
+      <c r="W293" s="3"/>
+      <c r="X293" s="3"/>
+      <c r="Y293" s="3"/>
+      <c r="Z293" s="3"/>
+      <c r="AA293" s="3"/>
+      <c r="AB293" s="3"/>
+      <c r="AC293" s="3"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="4">
+        <v>45258.0</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E294" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F294" s="3"/>
+      <c r="G294" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H294" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I294" s="3"/>
+      <c r="J294" s="3"/>
+      <c r="K294" s="3"/>
+      <c r="L294" s="3"/>
+      <c r="M294" s="3"/>
+      <c r="N294" s="3"/>
+      <c r="O294" s="3"/>
+      <c r="P294" s="3"/>
+      <c r="Q294" s="3"/>
+      <c r="R294" s="3"/>
+      <c r="S294" s="3"/>
+      <c r="T294" s="3"/>
+      <c r="U294" s="3"/>
+      <c r="V294" s="3"/>
+      <c r="W294" s="3"/>
+      <c r="X294" s="3"/>
+      <c r="Y294" s="3"/>
+      <c r="Z294" s="3"/>
+      <c r="AA294" s="3"/>
+      <c r="AB294" s="3"/>
+      <c r="AC294" s="3"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="4">
+        <v>45258.0</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D295" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E295" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F295" s="3"/>
+      <c r="G295" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H295" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I295" s="3"/>
+      <c r="J295" s="3"/>
+      <c r="K295" s="3"/>
+      <c r="L295" s="3"/>
+      <c r="M295" s="3"/>
+      <c r="N295" s="3"/>
+      <c r="O295" s="3"/>
+      <c r="P295" s="3"/>
+      <c r="Q295" s="3"/>
+      <c r="R295" s="3"/>
+      <c r="S295" s="3"/>
+      <c r="T295" s="3"/>
+      <c r="U295" s="3"/>
+      <c r="V295" s="3"/>
+      <c r="W295" s="3"/>
+      <c r="X295" s="3"/>
+      <c r="Y295" s="3"/>
+      <c r="Z295" s="3"/>
+      <c r="AA295" s="3"/>
+      <c r="AB295" s="3"/>
+      <c r="AC295" s="3"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="4">
+        <v>45258.0</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D296" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E296" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F296" s="3"/>
+      <c r="G296" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H296" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I296" s="3"/>
+      <c r="J296" s="3"/>
+      <c r="K296" s="3"/>
+      <c r="L296" s="3"/>
+      <c r="M296" s="3"/>
+      <c r="N296" s="3"/>
+      <c r="O296" s="3"/>
+      <c r="P296" s="3"/>
+      <c r="Q296" s="3"/>
+      <c r="R296" s="3"/>
+      <c r="S296" s="3"/>
+      <c r="T296" s="3"/>
+      <c r="U296" s="3"/>
+      <c r="V296" s="3"/>
+      <c r="W296" s="3"/>
+      <c r="X296" s="3"/>
+      <c r="Y296" s="3"/>
+      <c r="Z296" s="3"/>
+      <c r="AA296" s="3"/>
+      <c r="AB296" s="3"/>
+      <c r="AC296" s="3"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="4">
+        <v>45258.0</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D297" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E297" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F297" s="3"/>
+      <c r="G297" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H297" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I297" s="3"/>
+      <c r="J297" s="3"/>
+      <c r="K297" s="3"/>
+      <c r="L297" s="3"/>
+      <c r="M297" s="3"/>
+      <c r="N297" s="3"/>
+      <c r="O297" s="3"/>
+      <c r="P297" s="3"/>
+      <c r="Q297" s="3"/>
+      <c r="R297" s="3"/>
+      <c r="S297" s="3"/>
+      <c r="T297" s="3"/>
+      <c r="U297" s="3"/>
+      <c r="V297" s="3"/>
+      <c r="W297" s="3"/>
+      <c r="X297" s="3"/>
+      <c r="Y297" s="3"/>
+      <c r="Z297" s="3"/>
+      <c r="AA297" s="3"/>
+      <c r="AB297" s="3"/>
+      <c r="AC297" s="3"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="4">
+        <v>45258.0</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E298" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F298" s="3"/>
+      <c r="G298" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H298" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I298" s="3"/>
+      <c r="J298" s="3"/>
+      <c r="K298" s="3"/>
+      <c r="L298" s="3"/>
+      <c r="M298" s="3"/>
+      <c r="N298" s="3"/>
+      <c r="O298" s="3"/>
+      <c r="P298" s="3"/>
+      <c r="Q298" s="3"/>
+      <c r="R298" s="3"/>
+      <c r="S298" s="3"/>
+      <c r="T298" s="3"/>
+      <c r="U298" s="3"/>
+      <c r="V298" s="3"/>
+      <c r="W298" s="3"/>
+      <c r="X298" s="3"/>
+      <c r="Y298" s="3"/>
+      <c r="Z298" s="3"/>
+      <c r="AA298" s="3"/>
+      <c r="AB298" s="3"/>
+      <c r="AC298" s="3"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="4">
+        <v>45259.0</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E299" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F299" s="3"/>
+      <c r="G299" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H299" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I299" s="3"/>
+      <c r="J299" s="3"/>
+      <c r="K299" s="3"/>
+      <c r="L299" s="3"/>
+      <c r="M299" s="3"/>
+      <c r="N299" s="3"/>
+      <c r="O299" s="3"/>
+      <c r="P299" s="3"/>
+      <c r="Q299" s="3"/>
+      <c r="R299" s="3"/>
+      <c r="S299" s="3"/>
+      <c r="T299" s="3"/>
+      <c r="U299" s="3"/>
+      <c r="V299" s="3"/>
+      <c r="W299" s="3"/>
+      <c r="X299" s="3"/>
+      <c r="Y299" s="3"/>
+      <c r="Z299" s="3"/>
+      <c r="AA299" s="3"/>
+      <c r="AB299" s="3"/>
+      <c r="AC299" s="3"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="4">
+        <v>45259.0</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D300" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E300" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F300" s="3"/>
+      <c r="G300" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H300" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I300" s="3"/>
+      <c r="J300" s="3"/>
+      <c r="K300" s="3"/>
+      <c r="L300" s="3"/>
+      <c r="M300" s="3"/>
+      <c r="N300" s="3"/>
+      <c r="O300" s="3"/>
+      <c r="P300" s="3"/>
+      <c r="Q300" s="3"/>
+      <c r="R300" s="3"/>
+      <c r="S300" s="3"/>
+      <c r="T300" s="3"/>
+      <c r="U300" s="3"/>
+      <c r="V300" s="3"/>
+      <c r="W300" s="3"/>
+      <c r="X300" s="3"/>
+      <c r="Y300" s="3"/>
+      <c r="Z300" s="3"/>
+      <c r="AA300" s="3"/>
+      <c r="AB300" s="3"/>
+      <c r="AC300" s="3"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="4">
+        <v>45259.0</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E301" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F301" s="3"/>
+      <c r="G301" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H301" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I301" s="3"/>
+      <c r="J301" s="3"/>
+      <c r="K301" s="3"/>
+      <c r="L301" s="3"/>
+      <c r="M301" s="3"/>
+      <c r="N301" s="3"/>
+      <c r="O301" s="3"/>
+      <c r="P301" s="3"/>
+      <c r="Q301" s="3"/>
+      <c r="R301" s="3"/>
+      <c r="S301" s="3"/>
+      <c r="T301" s="3"/>
+      <c r="U301" s="3"/>
+      <c r="V301" s="3"/>
+      <c r="W301" s="3"/>
+      <c r="X301" s="3"/>
+      <c r="Y301" s="3"/>
+      <c r="Z301" s="3"/>
+      <c r="AA301" s="3"/>
+      <c r="AB301" s="3"/>
+      <c r="AC301" s="3"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="4">
+        <v>45259.0</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E302" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F302" s="3"/>
+      <c r="G302" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H302" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I302" s="3"/>
+      <c r="J302" s="3"/>
+      <c r="K302" s="3"/>
+      <c r="L302" s="3"/>
+      <c r="M302" s="3"/>
+      <c r="N302" s="3"/>
+      <c r="O302" s="3"/>
+      <c r="P302" s="3"/>
+      <c r="Q302" s="3"/>
+      <c r="R302" s="3"/>
+      <c r="S302" s="3"/>
+      <c r="T302" s="3"/>
+      <c r="U302" s="3"/>
+      <c r="V302" s="3"/>
+      <c r="W302" s="3"/>
+      <c r="X302" s="3"/>
+      <c r="Y302" s="3"/>
+      <c r="Z302" s="3"/>
+      <c r="AA302" s="3"/>
+      <c r="AB302" s="3"/>
+      <c r="AC302" s="3"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="4">
+        <v>45259.0</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E303" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F303" s="3"/>
+      <c r="G303" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H303" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I303" s="3"/>
+      <c r="J303" s="3"/>
+      <c r="K303" s="3"/>
+      <c r="L303" s="3"/>
+      <c r="M303" s="3"/>
+      <c r="N303" s="3"/>
+      <c r="O303" s="3"/>
+      <c r="P303" s="3"/>
+      <c r="Q303" s="3"/>
+      <c r="R303" s="3"/>
+      <c r="S303" s="3"/>
+      <c r="T303" s="3"/>
+      <c r="U303" s="3"/>
+      <c r="V303" s="3"/>
+      <c r="W303" s="3"/>
+      <c r="X303" s="3"/>
+      <c r="Y303" s="3"/>
+      <c r="Z303" s="3"/>
+      <c r="AA303" s="3"/>
+      <c r="AB303" s="3"/>
+      <c r="AC303" s="3"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="4">
+        <v>45259.0</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E304" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F304" s="3"/>
+      <c r="G304" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H304" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I304" s="3"/>
+      <c r="J304" s="3"/>
+      <c r="K304" s="3"/>
+      <c r="L304" s="3"/>
+      <c r="M304" s="3"/>
+      <c r="N304" s="3"/>
+      <c r="O304" s="3"/>
+      <c r="P304" s="3"/>
+      <c r="Q304" s="3"/>
+      <c r="R304" s="3"/>
+      <c r="S304" s="3"/>
+      <c r="T304" s="3"/>
+      <c r="U304" s="3"/>
+      <c r="V304" s="3"/>
+      <c r="W304" s="3"/>
+      <c r="X304" s="3"/>
+      <c r="Y304" s="3"/>
+      <c r="Z304" s="3"/>
+      <c r="AA304" s="3"/>
+      <c r="AB304" s="3"/>
+      <c r="AC304" s="3"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="4">
+        <v>45259.0</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D305" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E305" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F305" s="3"/>
+      <c r="G305" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H305" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I305" s="3"/>
+      <c r="J305" s="3"/>
+      <c r="K305" s="3"/>
+      <c r="L305" s="3"/>
+      <c r="M305" s="3"/>
+      <c r="N305" s="3"/>
+      <c r="O305" s="3"/>
+      <c r="P305" s="3"/>
+      <c r="Q305" s="3"/>
+      <c r="R305" s="3"/>
+      <c r="S305" s="3"/>
+      <c r="T305" s="3"/>
+      <c r="U305" s="3"/>
+      <c r="V305" s="3"/>
+      <c r="W305" s="3"/>
+      <c r="X305" s="3"/>
+      <c r="Y305" s="3"/>
+      <c r="Z305" s="3"/>
+      <c r="AA305" s="3"/>
+      <c r="AB305" s="3"/>
+      <c r="AC305" s="3"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="4">
+        <v>45259.0</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E306" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F306" s="3"/>
+      <c r="G306" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H306" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I306" s="3"/>
+      <c r="J306" s="3"/>
+      <c r="K306" s="3"/>
+      <c r="L306" s="3"/>
+      <c r="M306" s="3"/>
+      <c r="N306" s="3"/>
+      <c r="O306" s="3"/>
+      <c r="P306" s="3"/>
+      <c r="Q306" s="3"/>
+      <c r="R306" s="3"/>
+      <c r="S306" s="3"/>
+      <c r="T306" s="3"/>
+      <c r="U306" s="3"/>
+      <c r="V306" s="3"/>
+      <c r="W306" s="3"/>
+      <c r="X306" s="3"/>
+      <c r="Y306" s="3"/>
+      <c r="Z306" s="3"/>
+      <c r="AA306" s="3"/>
+      <c r="AB306" s="3"/>
+      <c r="AC306" s="3"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="4">
+        <v>45259.0</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E307" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F307" s="3"/>
+      <c r="G307" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H307" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I307" s="3"/>
+      <c r="J307" s="3"/>
+      <c r="K307" s="3"/>
+      <c r="L307" s="3"/>
+      <c r="M307" s="3"/>
+      <c r="N307" s="3"/>
+      <c r="O307" s="3"/>
+      <c r="P307" s="3"/>
+      <c r="Q307" s="3"/>
+      <c r="R307" s="3"/>
+      <c r="S307" s="3"/>
+      <c r="T307" s="3"/>
+      <c r="U307" s="3"/>
+      <c r="V307" s="3"/>
+      <c r="W307" s="3"/>
+      <c r="X307" s="3"/>
+      <c r="Y307" s="3"/>
+      <c r="Z307" s="3"/>
+      <c r="AA307" s="3"/>
+      <c r="AB307" s="3"/>
+      <c r="AC307" s="3"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="4">
+        <v>45260.0</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E308" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F308" s="3"/>
+      <c r="G308" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H308" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I308" s="3"/>
+      <c r="J308" s="3"/>
+      <c r="K308" s="3"/>
+      <c r="L308" s="3"/>
+      <c r="M308" s="3"/>
+      <c r="N308" s="3"/>
+      <c r="O308" s="3"/>
+      <c r="P308" s="3"/>
+      <c r="Q308" s="3"/>
+      <c r="R308" s="3"/>
+      <c r="S308" s="3"/>
+      <c r="T308" s="3"/>
+      <c r="U308" s="3"/>
+      <c r="V308" s="3"/>
+      <c r="W308" s="3"/>
+      <c r="X308" s="3"/>
+      <c r="Y308" s="3"/>
+      <c r="Z308" s="3"/>
+      <c r="AA308" s="3"/>
+      <c r="AB308" s="3"/>
+      <c r="AC308" s="3"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="4">
+        <v>45260.0</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C309" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E309" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F309" s="3"/>
+      <c r="G309" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H309" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I309" s="3"/>
+      <c r="J309" s="3"/>
+      <c r="K309" s="3"/>
+      <c r="L309" s="3"/>
+      <c r="M309" s="3"/>
+      <c r="N309" s="3"/>
+      <c r="O309" s="3"/>
+      <c r="P309" s="3"/>
+      <c r="Q309" s="3"/>
+      <c r="R309" s="3"/>
+      <c r="S309" s="3"/>
+      <c r="T309" s="3"/>
+      <c r="U309" s="3"/>
+      <c r="V309" s="3"/>
+      <c r="W309" s="3"/>
+      <c r="X309" s="3"/>
+      <c r="Y309" s="3"/>
+      <c r="Z309" s="3"/>
+      <c r="AA309" s="3"/>
+      <c r="AB309" s="3"/>
+      <c r="AC309" s="3"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="4">
+        <v>45260.0</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D310" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E310" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F310" s="3"/>
+      <c r="G310" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H310" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I310" s="3"/>
+      <c r="J310" s="3"/>
+      <c r="K310" s="3"/>
+      <c r="L310" s="3"/>
+      <c r="M310" s="3"/>
+      <c r="N310" s="3"/>
+      <c r="O310" s="3"/>
+      <c r="P310" s="3"/>
+      <c r="Q310" s="3"/>
+      <c r="R310" s="3"/>
+      <c r="S310" s="3"/>
+      <c r="T310" s="3"/>
+      <c r="U310" s="3"/>
+      <c r="V310" s="3"/>
+      <c r="W310" s="3"/>
+      <c r="X310" s="3"/>
+      <c r="Y310" s="3"/>
+      <c r="Z310" s="3"/>
+      <c r="AA310" s="3"/>
+      <c r="AB310" s="3"/>
+      <c r="AC310" s="3"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="4">
+        <v>45260.0</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E311" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F311" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G311" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H311" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I311" s="3"/>
+      <c r="J311" s="3"/>
+      <c r="K311" s="3"/>
+      <c r="L311" s="3"/>
+      <c r="M311" s="3"/>
+      <c r="N311" s="3"/>
+      <c r="O311" s="3"/>
+      <c r="P311" s="3"/>
+      <c r="Q311" s="3"/>
+      <c r="R311" s="3"/>
+      <c r="S311" s="3"/>
+      <c r="T311" s="3"/>
+      <c r="U311" s="3"/>
+      <c r="V311" s="3"/>
+      <c r="W311" s="3"/>
+      <c r="X311" s="3"/>
+      <c r="Y311" s="3"/>
+      <c r="Z311" s="3"/>
+      <c r="AA311" s="3"/>
+      <c r="AB311" s="3"/>
+      <c r="AC311" s="3"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="4">
+        <v>45260.0</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D312" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E312" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F312" s="3"/>
+      <c r="G312" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H312" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I312" s="3"/>
+      <c r="J312" s="3"/>
+      <c r="K312" s="3"/>
+      <c r="L312" s="3"/>
+      <c r="M312" s="3"/>
+      <c r="N312" s="3"/>
+      <c r="O312" s="3"/>
+      <c r="P312" s="3"/>
+      <c r="Q312" s="3"/>
+      <c r="R312" s="3"/>
+      <c r="S312" s="3"/>
+      <c r="T312" s="3"/>
+      <c r="U312" s="3"/>
+      <c r="V312" s="3"/>
+      <c r="W312" s="3"/>
+      <c r="X312" s="3"/>
+      <c r="Y312" s="3"/>
+      <c r="Z312" s="3"/>
+      <c r="AA312" s="3"/>
+      <c r="AB312" s="3"/>
+      <c r="AC312" s="3"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="4">
+        <v>45260.0</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E313" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F313" s="3"/>
+      <c r="G313" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H313" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I313" s="3"/>
+      <c r="J313" s="3"/>
+      <c r="K313" s="3"/>
+      <c r="L313" s="3"/>
+      <c r="M313" s="3"/>
+      <c r="N313" s="3"/>
+      <c r="O313" s="3"/>
+      <c r="P313" s="3"/>
+      <c r="Q313" s="3"/>
+      <c r="R313" s="3"/>
+      <c r="S313" s="3"/>
+      <c r="T313" s="3"/>
+      <c r="U313" s="3"/>
+      <c r="V313" s="3"/>
+      <c r="W313" s="3"/>
+      <c r="X313" s="3"/>
+      <c r="Y313" s="3"/>
+      <c r="Z313" s="3"/>
+      <c r="AA313" s="3"/>
+      <c r="AB313" s="3"/>
+      <c r="AC313" s="3"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="4">
+        <v>45260.0</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D314" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E314" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F314" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G314" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H314" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I314" s="3"/>
+      <c r="J314" s="3"/>
+      <c r="K314" s="3"/>
+      <c r="L314" s="3"/>
+      <c r="M314" s="3"/>
+      <c r="N314" s="3"/>
+      <c r="O314" s="3"/>
+      <c r="P314" s="3"/>
+      <c r="Q314" s="3"/>
+      <c r="R314" s="3"/>
+      <c r="S314" s="3"/>
+      <c r="T314" s="3"/>
+      <c r="U314" s="3"/>
+      <c r="V314" s="3"/>
+      <c r="W314" s="3"/>
+      <c r="X314" s="3"/>
+      <c r="Y314" s="3"/>
+      <c r="Z314" s="3"/>
+      <c r="AA314" s="3"/>
+      <c r="AB314" s="3"/>
+      <c r="AC314" s="3"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="4">
+        <v>45260.0</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C315" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D315" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E315" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F315" s="3"/>
+      <c r="G315" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H315" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I315" s="3"/>
+      <c r="J315" s="3"/>
+      <c r="K315" s="3"/>
+      <c r="L315" s="3"/>
+      <c r="M315" s="3"/>
+      <c r="N315" s="3"/>
+      <c r="O315" s="3"/>
+      <c r="P315" s="3"/>
+      <c r="Q315" s="3"/>
+      <c r="R315" s="3"/>
+      <c r="S315" s="3"/>
+      <c r="T315" s="3"/>
+      <c r="U315" s="3"/>
+      <c r="V315" s="3"/>
+      <c r="W315" s="3"/>
+      <c r="X315" s="3"/>
+      <c r="Y315" s="3"/>
+      <c r="Z315" s="3"/>
+      <c r="AA315" s="3"/>
+      <c r="AB315" s="3"/>
+      <c r="AC315" s="3"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="4">
+        <v>45260.0</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C316" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E316" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F316" s="3"/>
+      <c r="G316" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H316" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I316" s="3"/>
+      <c r="J316" s="3"/>
+      <c r="K316" s="3"/>
+      <c r="L316" s="3"/>
+      <c r="M316" s="3"/>
+      <c r="N316" s="3"/>
+      <c r="O316" s="3"/>
+      <c r="P316" s="3"/>
+      <c r="Q316" s="3"/>
+      <c r="R316" s="3"/>
+      <c r="S316" s="3"/>
+      <c r="T316" s="3"/>
+      <c r="U316" s="3"/>
+      <c r="V316" s="3"/>
+      <c r="W316" s="3"/>
+      <c r="X316" s="3"/>
+      <c r="Y316" s="3"/>
+      <c r="Z316" s="3"/>
+      <c r="AA316" s="3"/>
+      <c r="AB316" s="3"/>
+      <c r="AC316" s="3"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="4">
+        <v>45260.0</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C317" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D317" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E317" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F317" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G317" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H317" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I317" s="3"/>
+      <c r="J317" s="3"/>
+      <c r="K317" s="3"/>
+      <c r="L317" s="3"/>
+      <c r="M317" s="3"/>
+      <c r="N317" s="3"/>
+      <c r="O317" s="3"/>
+      <c r="P317" s="3"/>
+      <c r="Q317" s="3"/>
+      <c r="R317" s="3"/>
+      <c r="S317" s="3"/>
+      <c r="T317" s="3"/>
+      <c r="U317" s="3"/>
+      <c r="V317" s="3"/>
+      <c r="W317" s="3"/>
+      <c r="X317" s="3"/>
+      <c r="Y317" s="3"/>
+      <c r="Z317" s="3"/>
+      <c r="AA317" s="3"/>
+      <c r="AB317" s="3"/>
+      <c r="AC317" s="3"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="4">
+        <v>45260.0</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E318" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F318" s="3"/>
+      <c r="G318" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H318" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I318" s="3"/>
+      <c r="J318" s="3"/>
+      <c r="K318" s="3"/>
+      <c r="L318" s="3"/>
+      <c r="M318" s="3"/>
+      <c r="N318" s="3"/>
+      <c r="O318" s="3"/>
+      <c r="P318" s="3"/>
+      <c r="Q318" s="3"/>
+      <c r="R318" s="3"/>
+      <c r="S318" s="3"/>
+      <c r="T318" s="3"/>
+      <c r="U318" s="3"/>
+      <c r="V318" s="3"/>
+      <c r="W318" s="3"/>
+      <c r="X318" s="3"/>
+      <c r="Y318" s="3"/>
+      <c r="Z318" s="3"/>
+      <c r="AA318" s="3"/>
+      <c r="AB318" s="3"/>
+      <c r="AC318" s="3"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="4">
+        <v>45260.0</v>
+      </c>
+      <c r="B319" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C319" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E319" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F319" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G319" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H319" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I319" s="3"/>
+      <c r="J319" s="3"/>
+      <c r="K319" s="3"/>
+      <c r="L319" s="3"/>
+      <c r="M319" s="3"/>
+      <c r="N319" s="3"/>
+      <c r="O319" s="3"/>
+      <c r="P319" s="3"/>
+      <c r="Q319" s="3"/>
+      <c r="R319" s="3"/>
+      <c r="S319" s="3"/>
+      <c r="T319" s="3"/>
+      <c r="U319" s="3"/>
+      <c r="V319" s="3"/>
+      <c r="W319" s="3"/>
+      <c r="X319" s="3"/>
+      <c r="Y319" s="3"/>
+      <c r="Z319" s="3"/>
+      <c r="AA319" s="3"/>
+      <c r="AB319" s="3"/>
+      <c r="AC319" s="3"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="4">
+        <v>45261.0</v>
+      </c>
+      <c r="B320" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D320" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E320" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F320" s="3"/>
+      <c r="G320" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H320" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I320" s="3"/>
+      <c r="J320" s="3"/>
+      <c r="K320" s="3"/>
+      <c r="L320" s="3"/>
+      <c r="M320" s="3"/>
+      <c r="N320" s="3"/>
+      <c r="O320" s="3"/>
+      <c r="P320" s="3"/>
+      <c r="Q320" s="3"/>
+      <c r="R320" s="3"/>
+      <c r="S320" s="3"/>
+      <c r="T320" s="3"/>
+      <c r="U320" s="3"/>
+      <c r="V320" s="3"/>
+      <c r="W320" s="3"/>
+      <c r="X320" s="3"/>
+      <c r="Y320" s="3"/>
+      <c r="Z320" s="3"/>
+      <c r="AA320" s="3"/>
+      <c r="AB320" s="3"/>
+      <c r="AC320" s="3"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="4">
+        <v>45261.0</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D321" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E321" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F321" s="3"/>
+      <c r="G321" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H321" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I321" s="3"/>
+      <c r="J321" s="3"/>
+      <c r="K321" s="3"/>
+      <c r="L321" s="3"/>
+      <c r="M321" s="3"/>
+      <c r="N321" s="3"/>
+      <c r="O321" s="3"/>
+      <c r="P321" s="3"/>
+      <c r="Q321" s="3"/>
+      <c r="R321" s="3"/>
+      <c r="S321" s="3"/>
+      <c r="T321" s="3"/>
+      <c r="U321" s="3"/>
+      <c r="V321" s="3"/>
+      <c r="W321" s="3"/>
+      <c r="X321" s="3"/>
+      <c r="Y321" s="3"/>
+      <c r="Z321" s="3"/>
+      <c r="AA321" s="3"/>
+      <c r="AB321" s="3"/>
+      <c r="AC321" s="3"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="4">
+        <v>45261.0</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D322" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E322" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F322" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G322" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H322" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I322" s="3"/>
+      <c r="J322" s="3"/>
+      <c r="K322" s="3"/>
+      <c r="L322" s="3"/>
+      <c r="M322" s="3"/>
+      <c r="N322" s="3"/>
+      <c r="O322" s="3"/>
+      <c r="P322" s="3"/>
+      <c r="Q322" s="3"/>
+      <c r="R322" s="3"/>
+      <c r="S322" s="3"/>
+      <c r="T322" s="3"/>
+      <c r="U322" s="3"/>
+      <c r="V322" s="3"/>
+      <c r="W322" s="3"/>
+      <c r="X322" s="3"/>
+      <c r="Y322" s="3"/>
+      <c r="Z322" s="3"/>
+      <c r="AA322" s="3"/>
+      <c r="AB322" s="3"/>
+      <c r="AC322" s="3"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="4">
+        <v>45261.0</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D323" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E323" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F323" s="3"/>
+      <c r="G323" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H323" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I323" s="3"/>
+      <c r="J323" s="3"/>
+      <c r="K323" s="3"/>
+      <c r="L323" s="3"/>
+      <c r="M323" s="3"/>
+      <c r="N323" s="3"/>
+      <c r="O323" s="3"/>
+      <c r="P323" s="3"/>
+      <c r="Q323" s="3"/>
+      <c r="R323" s="3"/>
+      <c r="S323" s="3"/>
+      <c r="T323" s="3"/>
+      <c r="U323" s="3"/>
+      <c r="V323" s="3"/>
+      <c r="W323" s="3"/>
+      <c r="X323" s="3"/>
+      <c r="Y323" s="3"/>
+      <c r="Z323" s="3"/>
+      <c r="AA323" s="3"/>
+      <c r="AB323" s="3"/>
+      <c r="AC323" s="3"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="4">
+        <v>45261.0</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D324" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E324" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F324" s="3"/>
+      <c r="G324" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H324" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I324" s="3"/>
+      <c r="J324" s="3"/>
+      <c r="K324" s="3"/>
+      <c r="L324" s="3"/>
+      <c r="M324" s="3"/>
+      <c r="N324" s="3"/>
+      <c r="O324" s="3"/>
+      <c r="P324" s="3"/>
+      <c r="Q324" s="3"/>
+      <c r="R324" s="3"/>
+      <c r="S324" s="3"/>
+      <c r="T324" s="3"/>
+      <c r="U324" s="3"/>
+      <c r="V324" s="3"/>
+      <c r="W324" s="3"/>
+      <c r="X324" s="3"/>
+      <c r="Y324" s="3"/>
+      <c r="Z324" s="3"/>
+      <c r="AA324" s="3"/>
+      <c r="AB324" s="3"/>
+      <c r="AC324" s="3"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="4">
+        <v>45261.0</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D325" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E325" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F325" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G325" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H325" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I325" s="3"/>
+      <c r="J325" s="3"/>
+      <c r="K325" s="3"/>
+      <c r="L325" s="3"/>
+      <c r="M325" s="3"/>
+      <c r="N325" s="3"/>
+      <c r="O325" s="3"/>
+      <c r="P325" s="3"/>
+      <c r="Q325" s="3"/>
+      <c r="R325" s="3"/>
+      <c r="S325" s="3"/>
+      <c r="T325" s="3"/>
+      <c r="U325" s="3"/>
+      <c r="V325" s="3"/>
+      <c r="W325" s="3"/>
+      <c r="X325" s="3"/>
+      <c r="Y325" s="3"/>
+      <c r="Z325" s="3"/>
+      <c r="AA325" s="3"/>
+      <c r="AB325" s="3"/>
+      <c r="AC325" s="3"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="4">
+        <v>45261.0</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D326" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E326" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F326" s="3"/>
+      <c r="G326" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H326" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I326" s="3"/>
+      <c r="J326" s="3"/>
+      <c r="K326" s="3"/>
+      <c r="L326" s="3"/>
+      <c r="M326" s="3"/>
+      <c r="N326" s="3"/>
+      <c r="O326" s="3"/>
+      <c r="P326" s="3"/>
+      <c r="Q326" s="3"/>
+      <c r="R326" s="3"/>
+      <c r="S326" s="3"/>
+      <c r="T326" s="3"/>
+      <c r="U326" s="3"/>
+      <c r="V326" s="3"/>
+      <c r="W326" s="3"/>
+      <c r="X326" s="3"/>
+      <c r="Y326" s="3"/>
+      <c r="Z326" s="3"/>
+      <c r="AA326" s="3"/>
+      <c r="AB326" s="3"/>
+      <c r="AC326" s="3"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="4">
+        <v>45261.0</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E327" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F327" s="3"/>
+      <c r="G327" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H327" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I327" s="3"/>
+      <c r="J327" s="3"/>
+      <c r="K327" s="3"/>
+      <c r="L327" s="3"/>
+      <c r="M327" s="3"/>
+      <c r="N327" s="3"/>
+      <c r="O327" s="3"/>
+      <c r="P327" s="3"/>
+      <c r="Q327" s="3"/>
+      <c r="R327" s="3"/>
+      <c r="S327" s="3"/>
+      <c r="T327" s="3"/>
+      <c r="U327" s="3"/>
+      <c r="V327" s="3"/>
+      <c r="W327" s="3"/>
+      <c r="X327" s="3"/>
+      <c r="Y327" s="3"/>
+      <c r="Z327" s="3"/>
+      <c r="AA327" s="3"/>
+      <c r="AB327" s="3"/>
+      <c r="AC327" s="3"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="4">
+        <v>45261.0</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D328" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E328" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F328" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G328" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H328" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I328" s="3"/>
+      <c r="J328" s="3"/>
+      <c r="K328" s="3"/>
+      <c r="L328" s="3"/>
+      <c r="M328" s="3"/>
+      <c r="N328" s="3"/>
+      <c r="O328" s="3"/>
+      <c r="P328" s="3"/>
+      <c r="Q328" s="3"/>
+      <c r="R328" s="3"/>
+      <c r="S328" s="3"/>
+      <c r="T328" s="3"/>
+      <c r="U328" s="3"/>
+      <c r="V328" s="3"/>
+      <c r="W328" s="3"/>
+      <c r="X328" s="3"/>
+      <c r="Y328" s="3"/>
+      <c r="Z328" s="3"/>
+      <c r="AA328" s="3"/>
+      <c r="AB328" s="3"/>
+      <c r="AC328" s="3"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="4">
+        <v>45261.0</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C329" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E329" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F329" s="3"/>
+      <c r="G329" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H329" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I329" s="3"/>
+      <c r="J329" s="3"/>
+      <c r="K329" s="3"/>
+      <c r="L329" s="3"/>
+      <c r="M329" s="3"/>
+      <c r="N329" s="3"/>
+      <c r="O329" s="3"/>
+      <c r="P329" s="3"/>
+      <c r="Q329" s="3"/>
+      <c r="R329" s="3"/>
+      <c r="S329" s="3"/>
+      <c r="T329" s="3"/>
+      <c r="U329" s="3"/>
+      <c r="V329" s="3"/>
+      <c r="W329" s="3"/>
+      <c r="X329" s="3"/>
+      <c r="Y329" s="3"/>
+      <c r="Z329" s="3"/>
+      <c r="AA329" s="3"/>
+      <c r="AB329" s="3"/>
+      <c r="AC329" s="3"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="4">
+        <v>45261.0</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D330" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E330" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F330" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G330" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H330" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I330" s="3"/>
+      <c r="J330" s="3"/>
+      <c r="K330" s="3"/>
+      <c r="L330" s="3"/>
+      <c r="M330" s="3"/>
+      <c r="N330" s="3"/>
+      <c r="O330" s="3"/>
+      <c r="P330" s="3"/>
+      <c r="Q330" s="3"/>
+      <c r="R330" s="3"/>
+      <c r="S330" s="3"/>
+      <c r="T330" s="3"/>
+      <c r="U330" s="3"/>
+      <c r="V330" s="3"/>
+      <c r="W330" s="3"/>
+      <c r="X330" s="3"/>
+      <c r="Y330" s="3"/>
+      <c r="Z330" s="3"/>
+      <c r="AA330" s="3"/>
+      <c r="AB330" s="3"/>
+      <c r="AC330" s="3"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="4">
+        <v>45262.0</v>
+      </c>
+      <c r="B331" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C331" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D331" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E331" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F331" s="3"/>
+      <c r="G331" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H331" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I331" s="3"/>
+      <c r="J331" s="3"/>
+      <c r="K331" s="3"/>
+      <c r="L331" s="3"/>
+      <c r="M331" s="3"/>
+      <c r="N331" s="3"/>
+      <c r="O331" s="3"/>
+      <c r="P331" s="3"/>
+      <c r="Q331" s="3"/>
+      <c r="R331" s="3"/>
+      <c r="S331" s="3"/>
+      <c r="T331" s="3"/>
+      <c r="U331" s="3"/>
+      <c r="V331" s="3"/>
+      <c r="W331" s="3"/>
+      <c r="X331" s="3"/>
+      <c r="Y331" s="3"/>
+      <c r="Z331" s="3"/>
+      <c r="AA331" s="3"/>
+      <c r="AB331" s="3"/>
+      <c r="AC331" s="3"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="4">
+        <v>45262.0</v>
+      </c>
+      <c r="B332" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E332" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F332" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G332" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H332" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I332" s="3"/>
+      <c r="J332" s="3"/>
+      <c r="K332" s="3"/>
+      <c r="L332" s="3"/>
+      <c r="M332" s="3"/>
+      <c r="N332" s="3"/>
+      <c r="O332" s="3"/>
+      <c r="P332" s="3"/>
+      <c r="Q332" s="3"/>
+      <c r="R332" s="3"/>
+      <c r="S332" s="3"/>
+      <c r="T332" s="3"/>
+      <c r="U332" s="3"/>
+      <c r="V332" s="3"/>
+      <c r="W332" s="3"/>
+      <c r="X332" s="3"/>
+      <c r="Y332" s="3"/>
+      <c r="Z332" s="3"/>
+      <c r="AA332" s="3"/>
+      <c r="AB332" s="3"/>
+      <c r="AC332" s="3"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="4">
+        <v>45264.0</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E333" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F333" s="3"/>
+      <c r="G333" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H333" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I333" s="3"/>
+      <c r="J333" s="3"/>
+      <c r="K333" s="3"/>
+      <c r="L333" s="3"/>
+      <c r="M333" s="3"/>
+      <c r="N333" s="3"/>
+      <c r="O333" s="3"/>
+      <c r="P333" s="3"/>
+      <c r="Q333" s="3"/>
+      <c r="R333" s="3"/>
+      <c r="S333" s="3"/>
+      <c r="T333" s="3"/>
+      <c r="U333" s="3"/>
+      <c r="V333" s="3"/>
+      <c r="W333" s="3"/>
+      <c r="X333" s="3"/>
+      <c r="Y333" s="3"/>
+      <c r="Z333" s="3"/>
+      <c r="AA333" s="3"/>
+      <c r="AB333" s="3"/>
+      <c r="AC333" s="3"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="4">
+        <v>45264.0</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D334" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E334" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F334" s="3"/>
+      <c r="G334" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H334" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I334" s="3"/>
+      <c r="J334" s="3"/>
+      <c r="K334" s="3"/>
+      <c r="L334" s="3"/>
+      <c r="M334" s="3"/>
+      <c r="N334" s="3"/>
+      <c r="O334" s="3"/>
+      <c r="P334" s="3"/>
+      <c r="Q334" s="3"/>
+      <c r="R334" s="3"/>
+      <c r="S334" s="3"/>
+      <c r="T334" s="3"/>
+      <c r="U334" s="3"/>
+      <c r="V334" s="3"/>
+      <c r="W334" s="3"/>
+      <c r="X334" s="3"/>
+      <c r="Y334" s="3"/>
+      <c r="Z334" s="3"/>
+      <c r="AA334" s="3"/>
+      <c r="AB334" s="3"/>
+      <c r="AC334" s="3"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="4">
+        <v>45264.0</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D335" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E335" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F335" s="3"/>
+      <c r="G335" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H335" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I335" s="3"/>
+      <c r="J335" s="3"/>
+      <c r="K335" s="3"/>
+      <c r="L335" s="3"/>
+      <c r="M335" s="3"/>
+      <c r="N335" s="3"/>
+      <c r="O335" s="3"/>
+      <c r="P335" s="3"/>
+      <c r="Q335" s="3"/>
+      <c r="R335" s="3"/>
+      <c r="S335" s="3"/>
+      <c r="T335" s="3"/>
+      <c r="U335" s="3"/>
+      <c r="V335" s="3"/>
+      <c r="W335" s="3"/>
+      <c r="X335" s="3"/>
+      <c r="Y335" s="3"/>
+      <c r="Z335" s="3"/>
+      <c r="AA335" s="3"/>
+      <c r="AB335" s="3"/>
+      <c r="AC335" s="3"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="4">
+        <v>45264.0</v>
+      </c>
+      <c r="B336" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D336" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E336" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F336" s="3"/>
+      <c r="G336" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H336" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I336" s="3"/>
+      <c r="J336" s="3"/>
+      <c r="K336" s="3"/>
+      <c r="L336" s="3"/>
+      <c r="M336" s="3"/>
+      <c r="N336" s="3"/>
+      <c r="O336" s="3"/>
+      <c r="P336" s="3"/>
+      <c r="Q336" s="3"/>
+      <c r="R336" s="3"/>
+      <c r="S336" s="3"/>
+      <c r="T336" s="3"/>
+      <c r="U336" s="3"/>
+      <c r="V336" s="3"/>
+      <c r="W336" s="3"/>
+      <c r="X336" s="3"/>
+      <c r="Y336" s="3"/>
+      <c r="Z336" s="3"/>
+      <c r="AA336" s="3"/>
+      <c r="AB336" s="3"/>
+      <c r="AC336" s="3"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="4">
+        <v>45264.0</v>
+      </c>
+      <c r="B337" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E337" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F337" s="3"/>
+      <c r="G337" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H337" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I337" s="3"/>
+      <c r="J337" s="3"/>
+      <c r="K337" s="3"/>
+      <c r="L337" s="3"/>
+      <c r="M337" s="3"/>
+      <c r="N337" s="3"/>
+      <c r="O337" s="3"/>
+      <c r="P337" s="3"/>
+      <c r="Q337" s="3"/>
+      <c r="R337" s="3"/>
+      <c r="S337" s="3"/>
+      <c r="T337" s="3"/>
+      <c r="U337" s="3"/>
+      <c r="V337" s="3"/>
+      <c r="W337" s="3"/>
+      <c r="X337" s="3"/>
+      <c r="Y337" s="3"/>
+      <c r="Z337" s="3"/>
+      <c r="AA337" s="3"/>
+      <c r="AB337" s="3"/>
+      <c r="AC337" s="3"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="4">
+        <v>45264.0</v>
+      </c>
+      <c r="B338" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C338" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D338" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E338" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F338" s="3"/>
+      <c r="G338" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H338" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I338" s="3"/>
+      <c r="J338" s="3"/>
+      <c r="K338" s="3"/>
+      <c r="L338" s="3"/>
+      <c r="M338" s="3"/>
+      <c r="N338" s="3"/>
+      <c r="O338" s="3"/>
+      <c r="P338" s="3"/>
+      <c r="Q338" s="3"/>
+      <c r="R338" s="3"/>
+      <c r="S338" s="3"/>
+      <c r="T338" s="3"/>
+      <c r="U338" s="3"/>
+      <c r="V338" s="3"/>
+      <c r="W338" s="3"/>
+      <c r="X338" s="3"/>
+      <c r="Y338" s="3"/>
+      <c r="Z338" s="3"/>
+      <c r="AA338" s="3"/>
+      <c r="AB338" s="3"/>
+      <c r="AC338" s="3"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="4">
+        <v>45264.0</v>
+      </c>
+      <c r="B339" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D339" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E339" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F339" s="3"/>
+      <c r="G339" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H339" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I339" s="3"/>
+      <c r="J339" s="3"/>
+      <c r="K339" s="3"/>
+      <c r="L339" s="3"/>
+      <c r="M339" s="3"/>
+      <c r="N339" s="3"/>
+      <c r="O339" s="3"/>
+      <c r="P339" s="3"/>
+      <c r="Q339" s="3"/>
+      <c r="R339" s="3"/>
+      <c r="S339" s="3"/>
+      <c r="T339" s="3"/>
+      <c r="U339" s="3"/>
+      <c r="V339" s="3"/>
+      <c r="W339" s="3"/>
+      <c r="X339" s="3"/>
+      <c r="Y339" s="3"/>
+      <c r="Z339" s="3"/>
+      <c r="AA339" s="3"/>
+      <c r="AB339" s="3"/>
+      <c r="AC339" s="3"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="4">
+        <v>45264.0</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D340" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E340" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F340" s="3"/>
+      <c r="G340" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H340" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I340" s="3"/>
+      <c r="J340" s="3"/>
+      <c r="K340" s="3"/>
+      <c r="L340" s="3"/>
+      <c r="M340" s="3"/>
+      <c r="N340" s="3"/>
+      <c r="O340" s="3"/>
+      <c r="P340" s="3"/>
+      <c r="Q340" s="3"/>
+      <c r="R340" s="3"/>
+      <c r="S340" s="3"/>
+      <c r="T340" s="3"/>
+      <c r="U340" s="3"/>
+      <c r="V340" s="3"/>
+      <c r="W340" s="3"/>
+      <c r="X340" s="3"/>
+      <c r="Y340" s="3"/>
+      <c r="Z340" s="3"/>
+      <c r="AA340" s="3"/>
+      <c r="AB340" s="3"/>
+      <c r="AC340" s="3"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="B341" s="7"/>
@@ -18950,7 +21341,7 @@
       <c r="H1000" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$I$276">
+  <autoFilter ref="$A$1:$I$340">
     <filterColumn colId="4">
       <filters>
         <filter val="temos chances de vender para esse lead"/>
@@ -18959,7 +21350,7 @@
     </filterColumn>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{4918637C-71A5-41DB-8574-FD1A80690DB6}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{DF73B051-FB33-4E7D-BDE7-B4F417C6A432}" filter="1" showAutoFilter="1">
       <autoFilter ref="$H$1:$H$1000"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
@@ -18967,7 +21358,7 @@
         </ext>
       </extLst>
     </customSheetView>
-    <customSheetView guid="{202EC582-CD03-4CCC-B9AA-46CCC5517614}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{1C3AE3CE-0070-40F2-B438-8DFD319C2EEA}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$21:$AC$236"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
@@ -18975,7 +21366,7 @@
         </ext>
       </extLst>
     </customSheetView>
-    <customSheetView guid="{E9F9B40F-B781-4611-AD34-58A08A63AD1D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D501E820-4EB2-4806-B770-CA2F818125D6}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$I$236">
         <filterColumn colId="4">
           <filters blank="1">
@@ -18990,7 +21381,7 @@
         </ext>
       </extLst>
     </customSheetView>
-    <customSheetView guid="{6C3CA0EA-301B-4C43-9248-9FE864F212A7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{16BC10E7-74A7-4E12-BF55-041B62E65BAC}" filter="1" showAutoFilter="1">
       <autoFilter ref="$E$1:$E$1000"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
@@ -19043,7 +21434,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -19092,31 +21483,31 @@
     </row>
     <row r="2" ht="153.0" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
